--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-poly-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4008567931456548</v>
+        <v>0.8591187270501836</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04235006119951042</v>
+        <v>0.7755201958384333</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8297157622739018</v>
+        <v>0.9049095607235141</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5979328165374677</v>
+        <v>0.8984496124031008</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7496124031007753</v>
+        <v>0.7093023255813953</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.3233918128654971</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.2386797502230151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5240935672514621</v>
+        <v>0.8294600843193255</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-poly-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.288135593220339</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8591187270501836</v>
+        <v>0.8680972388955582</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7755201958384333</v>
+        <v>0.9993997599039616</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9049095607235141</v>
+        <v>0.9447963800904977</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8984496124031008</v>
+        <v>0.6090497737556562</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7093023255813953</v>
+        <v>0.9233785822021117</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.4252100840336134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3233918128654971</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2386797502230151</v>
+        <v>0.1803081232492997</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8294600843193255</v>
+        <v>0.868944346969557</v>
       </c>
     </row>
   </sheetData>
